--- a/ملفات الاكسل لمشروع التخرج/subject.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/subject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F64081D-48F1-4102-8790-938C5DB9975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1107F-6CC9-47D4-8E0D-C2710C379B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="386">
   <si>
     <t>subject_id</t>
   </si>
@@ -1156,13 +1156,40 @@
   </si>
   <si>
     <t>department_id</t>
+  </si>
+  <si>
+    <t>ACD95159</t>
+  </si>
+  <si>
+    <t>متطلب تخصص اختياري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نظري وعملي </t>
+  </si>
+  <si>
+    <t>قسم المهن الهندسية</t>
+  </si>
+  <si>
+    <t>ACD95160</t>
+  </si>
+  <si>
+    <t>مادة مؤمن 1</t>
+  </si>
+  <si>
+    <t>مادة مؤمن 2</t>
+  </si>
+  <si>
+    <t>مادة مؤمن 3</t>
+  </si>
+  <si>
+    <t>متطلب تخصص اجباري</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,6 +1208,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1232,20 +1265,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="I265" sqref="I265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1541,52 +1574,52 @@
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1595,7 +1628,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3">
@@ -1624,7 +1657,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4">
@@ -1653,7 +1686,7 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5">
@@ -1682,7 +1715,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6">
@@ -1711,7 +1744,7 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D7">
@@ -1740,7 +1773,7 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8">
@@ -1769,7 +1802,7 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9">
@@ -1792,46 +1825,72 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
+      <c r="A10">
+        <v>8888</v>
+      </c>
+      <c r="B10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" t="s">
+        <v>379</v>
+      </c>
+      <c r="I10" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>9999</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>381</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" t="s">
+        <v>379</v>
+      </c>
+      <c r="I11" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>7777</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>377</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1842,60 +1901,34 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+      <c r="G12" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1912,28 +1945,28 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1941,22 +1974,22 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1970,13 +2003,13 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1988,53 +2021,82 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2055,59 +2117,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2115,28 +2149,28 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2144,144 +2178,145 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2289,28 +2324,28 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2318,13 +2353,13 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2347,19 +2382,19 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2371,120 +2406,121 @@
         <v>3</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2492,28 +2528,28 @@
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2521,71 +2557,100 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -2606,59 +2671,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -2666,16 +2703,16 @@
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -2695,13 +2732,13 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2719,47 +2756,76 @@
         <v>3</v>
       </c>
       <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2771,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2780,59 +2846,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2840,13 +2878,13 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -2858,53 +2896,82 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2925,59 +2992,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -2985,13 +3024,13 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3014,13 +3053,13 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3038,56 +3077,85 @@
         <v>3</v>
       </c>
       <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -3099,59 +3167,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -3159,22 +3199,22 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -3183,47 +3223,76 @@
         <v>3</v>
       </c>
       <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3235,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -3244,86 +3313,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3346,13 +3403,13 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -3373,44 +3430,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3433,13 +3474,13 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -3462,13 +3503,13 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -3491,13 +3532,13 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -3520,13 +3561,13 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -3549,13 +3590,13 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -3578,13 +3619,13 @@
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -3607,13 +3648,13 @@
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -3636,13 +3677,13 @@
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -3665,13 +3706,13 @@
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -3694,13 +3735,13 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -3723,13 +3764,13 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -3752,13 +3793,13 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3781,13 +3822,13 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -3810,13 +3851,13 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -3839,13 +3880,13 @@
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3868,13 +3909,13 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -3897,13 +3938,13 @@
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -3926,13 +3967,13 @@
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -3954,129 +3995,129 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" t="s">
-        <v>176</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
-      <c r="I97">
-        <v>2</v>
-      </c>
+      <c r="A97" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -4084,28 +4125,28 @@
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -4113,77 +4154,106 @@
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
         <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4198,59 +4268,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>185</v>
-      </c>
-      <c r="C104" t="s">
-        <v>186</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104">
-        <v>3</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -4258,25 +4300,25 @@
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -4287,28 +4329,28 @@
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>2</v>
@@ -4316,28 +4358,28 @@
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C108" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -4345,28 +4387,28 @@
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -4374,13 +4416,13 @@
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4403,141 +4445,142 @@
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>3</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>3</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>205</v>
-      </c>
-      <c r="C115" t="s">
-        <v>206</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -4548,28 +4591,28 @@
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>3</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -4577,28 +4620,28 @@
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>3</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -4606,28 +4649,28 @@
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>3</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -4635,25 +4678,25 @@
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -4664,28 +4707,28 @@
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -4693,13 +4736,13 @@
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4711,24 +4754,53 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -4740,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -4749,27 +4821,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -4778,59 +4850,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>225</v>
-      </c>
-      <c r="C126" t="s">
-        <v>226</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>3</v>
-      </c>
-      <c r="H126">
-        <v>3</v>
-      </c>
-      <c r="I126">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -4838,28 +4882,28 @@
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -4867,28 +4911,28 @@
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C129" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>3</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -4896,25 +4940,25 @@
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -4925,28 +4969,28 @@
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>3</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -4954,28 +4998,28 @@
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C132" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>3</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -4983,28 +5027,28 @@
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -5012,142 +5056,142 @@
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <v>3</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
+      <c r="A135">
+        <v>130</v>
+      </c>
+      <c r="B135" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
         <v>2</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>178</v>
-      </c>
-      <c r="C138" t="s">
-        <v>182</v>
-      </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138">
-        <v>2</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>3</v>
-      </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
+      <c r="A138" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -5159,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -5170,25 +5214,25 @@
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="D140">
         <v>3</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -5199,13 +5243,13 @@
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -5217,126 +5261,127 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>3</v>
       </c>
       <c r="I141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>137</v>
+      </c>
+      <c r="B142" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
         <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="C143" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="D143">
         <v>3</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C144" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="D144">
         <v>3</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>247</v>
-      </c>
-      <c r="C145" t="s">
-        <v>248</v>
-      </c>
-      <c r="D145">
-        <v>3</v>
-      </c>
-      <c r="E145">
-        <v>2</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>3</v>
-      </c>
-      <c r="H145">
-        <v>3</v>
-      </c>
-      <c r="I145">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>3</v>
@@ -5344,28 +5389,28 @@
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -5373,25 +5418,25 @@
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C148" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D148">
         <v>3</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -5402,13 +5447,13 @@
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C149" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -5420,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -5431,13 +5476,13 @@
     </row>
     <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C150" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -5449,24 +5494,53 @@
         <v>1</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>146</v>
+      </c>
+      <c r="B151" t="s">
+        <v>253</v>
+      </c>
+      <c r="C151" t="s">
+        <v>254</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C152" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -5487,73 +5561,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="C153" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>261</v>
-      </c>
-      <c r="C154" t="s">
-        <v>262</v>
-      </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154">
-        <v>2</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>3</v>
-      </c>
-      <c r="H154">
-        <v>3</v>
-      </c>
-      <c r="I154">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C155" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -5576,19 +5622,19 @@
     </row>
     <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C156" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -5605,28 +5651,28 @@
     </row>
     <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C157" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>3</v>
@@ -5634,83 +5680,112 @@
     </row>
     <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C158" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>265</v>
+      </c>
+      <c r="C159" t="s">
+        <v>266</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C160" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C161" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -5719,44 +5794,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>273</v>
-      </c>
-      <c r="C162" t="s">
-        <v>274</v>
-      </c>
-      <c r="D162">
-        <v>3</v>
-      </c>
-      <c r="E162">
-        <v>2</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>3</v>
-      </c>
-      <c r="H162">
-        <v>3</v>
-      </c>
-      <c r="I162">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C163" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -5779,28 +5826,28 @@
     </row>
     <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C164" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164">
         <v>3</v>
@@ -5808,61 +5855,77 @@
     </row>
     <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="D165">
         <v>3</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+      <c r="A166">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>275</v>
+      </c>
+      <c r="C166" t="s">
+        <v>276</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>2</v>
@@ -5871,21 +5934,21 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -5903,59 +5966,43 @@
         <v>1</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>246</v>
-      </c>
-      <c r="C169" t="s">
-        <v>179</v>
-      </c>
-      <c r="D169">
-        <v>3</v>
-      </c>
-      <c r="E169">
-        <v>2</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>3</v>
-      </c>
-      <c r="H169">
-        <v>3</v>
-      </c>
-      <c r="I169">
-        <v>4</v>
-      </c>
+      <c r="A169" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
     </row>
     <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="D170">
         <v>3</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>3</v>
@@ -5964,117 +6011,118 @@
         <v>4</v>
       </c>
     </row>
+    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>166</v>
+      </c>
+      <c r="B171" t="s">
+        <v>201</v>
+      </c>
+      <c r="C171" t="s">
+        <v>202</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+    </row>
     <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C172" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C173" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173">
         <v>3</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>284</v>
-      </c>
-      <c r="C174" t="s">
-        <v>285</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C175" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <v>1</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175">
         <v>4</v>
@@ -6082,28 +6130,28 @@
     </row>
     <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C176" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D176">
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176">
         <v>3</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>4</v>
@@ -6111,28 +6159,28 @@
     </row>
     <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C177" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>4</v>
@@ -6140,19 +6188,19 @@
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C178" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -6161,7 +6209,7 @@
         <v>3</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>4</v>
@@ -6169,16 +6217,16 @@
     </row>
     <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C179" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -6198,28 +6246,28 @@
     </row>
     <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="C180" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>4</v>
@@ -6227,48 +6275,77 @@
     </row>
     <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C181" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>4</v>
       </c>
     </row>
+    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>177</v>
+      </c>
+      <c r="B182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C182" t="s">
+        <v>295</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <v>3</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+    </row>
     <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C183" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -6283,15 +6360,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C184" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -6300,71 +6377,43 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>299</v>
-      </c>
-      <c r="C185" t="s">
-        <v>300</v>
-      </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>2</v>
-      </c>
-      <c r="H185">
-        <v>2</v>
-      </c>
-      <c r="I185">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="C186" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>4</v>
@@ -6372,13 +6421,13 @@
     </row>
     <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C187" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -6390,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -6401,25 +6450,25 @@
     </row>
     <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C188" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -6430,28 +6479,28 @@
     </row>
     <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C189" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>4</v>
@@ -6459,13 +6508,13 @@
     </row>
     <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C190" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -6480,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -6488,25 +6537,25 @@
     </row>
     <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F191">
         <v>1</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -6515,56 +6564,85 @@
         <v>4</v>
       </c>
     </row>
+    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>187</v>
+      </c>
+      <c r="B192" t="s">
+        <v>307</v>
+      </c>
+      <c r="C192" t="s">
+        <v>308</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+    </row>
     <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="C193" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I193">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C194" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -6573,59 +6651,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>193</v>
-      </c>
-      <c r="B195" t="s">
-        <v>311</v>
-      </c>
-      <c r="C195" t="s">
-        <v>312</v>
-      </c>
-      <c r="D195">
-        <v>2</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
-      </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>3</v>
-      </c>
-      <c r="I195">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="C196" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="D196">
         <v>3</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -6633,25 +6683,25 @@
     </row>
     <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="C197" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -6662,25 +6712,25 @@
     </row>
     <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C198" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198">
         <v>1</v>
       </c>
       <c r="G198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>3</v>
@@ -6691,19 +6741,19 @@
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B199" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C199" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -6720,25 +6770,25 @@
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C200" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -6749,25 +6799,25 @@
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B201" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="C201" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -6777,129 +6827,129 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
+      <c r="A202">
+        <v>197</v>
+      </c>
+      <c r="B202" t="s">
+        <v>319</v>
+      </c>
+      <c r="C202" t="s">
+        <v>320</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+      <c r="H202">
+        <v>3</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="C203" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C204" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>2</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>202</v>
-      </c>
-      <c r="B205" t="s">
-        <v>323</v>
-      </c>
-      <c r="C205" t="s">
-        <v>324</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <v>3</v>
-      </c>
-      <c r="H205">
-        <v>1</v>
-      </c>
-      <c r="I205">
-        <v>5</v>
-      </c>
+      <c r="A205" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B206" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="C206" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>5</v>
@@ -6907,28 +6957,28 @@
     </row>
     <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B207" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="C207" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>5</v>
@@ -6936,28 +6986,28 @@
     </row>
     <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B208" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="C208" t="s">
-        <v>179</v>
+        <v>324</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>3</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>5</v>
@@ -6965,129 +7015,130 @@
     </row>
     <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B209" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="C209" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>5</v>
       </c>
     </row>
+    <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>204</v>
+      </c>
+      <c r="B210" t="s">
+        <v>325</v>
+      </c>
+      <c r="C210" t="s">
+        <v>326</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>5</v>
+      </c>
+    </row>
     <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B211" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="C211" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="D211">
         <v>3</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="C212" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D212">
         <v>3</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G212">
         <v>2</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>209</v>
-      </c>
-      <c r="B213" t="s">
-        <v>332</v>
-      </c>
-      <c r="C213" t="s">
-        <v>333</v>
-      </c>
-      <c r="D213">
-        <v>3</v>
-      </c>
-      <c r="E213">
-        <v>2</v>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <v>3</v>
-      </c>
-      <c r="H213">
-        <v>3</v>
-      </c>
-      <c r="I213">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B214" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C214" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -7110,28 +7161,28 @@
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B215" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="C215" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
       <c r="D215">
         <v>3</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>5</v>
@@ -7139,13 +7190,13 @@
     </row>
     <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B216" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C216" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D216">
         <v>3</v>
@@ -7166,15 +7217,44 @@
         <v>5</v>
       </c>
     </row>
+    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>210</v>
+      </c>
+      <c r="B217" t="s">
+        <v>334</v>
+      </c>
+      <c r="C217" t="s">
+        <v>46</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>5</v>
+      </c>
+    </row>
     <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B218" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C218" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -7195,15 +7275,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B219" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C219" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -7215,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H219">
         <v>3</v>
@@ -7224,59 +7304,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>215</v>
-      </c>
-      <c r="B220" t="s">
-        <v>341</v>
-      </c>
-      <c r="C220" t="s">
-        <v>342</v>
-      </c>
-      <c r="D220">
-        <v>3</v>
-      </c>
-      <c r="E220">
-        <v>2</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>3</v>
-      </c>
-      <c r="H220">
-        <v>3</v>
-      </c>
-      <c r="I220">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B221" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="C221" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <v>3</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
         <v>5</v>
@@ -7284,25 +7336,25 @@
     </row>
     <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B222" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C222" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E222">
         <v>2</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -7313,19 +7365,19 @@
     </row>
     <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B223" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C223" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -7334,7 +7386,7 @@
         <v>3</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223">
         <v>5</v>
@@ -7342,28 +7394,28 @@
     </row>
     <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B224" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="C224" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>5</v>
@@ -7371,144 +7423,145 @@
     </row>
     <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B225" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="C225" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>5</v>
       </c>
     </row>
+    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>218</v>
+      </c>
+      <c r="B226" t="s">
+        <v>345</v>
+      </c>
+      <c r="C226" t="s">
+        <v>346</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226">
+        <v>5</v>
+      </c>
+    </row>
     <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C227" t="s">
-        <v>347</v>
+        <v>216</v>
       </c>
       <c r="D227">
         <v>3</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B228" t="s">
-        <v>348</v>
+        <v>219</v>
       </c>
       <c r="C228" t="s">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>223</v>
-      </c>
-      <c r="B229" t="s">
-        <v>350</v>
-      </c>
-      <c r="C229" t="s">
-        <v>121</v>
-      </c>
-      <c r="D229">
-        <v>2</v>
-      </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-      <c r="F229">
-        <v>2</v>
-      </c>
-      <c r="G229">
-        <v>3</v>
-      </c>
-      <c r="H229">
-        <v>2</v>
-      </c>
-      <c r="I229">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B230" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="C230" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <v>3</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I230">
         <v>5</v>
@@ -7516,28 +7569,28 @@
     </row>
     <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B231" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C231" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E231">
         <v>2</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231">
         <v>3</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>5</v>
@@ -7545,28 +7598,28 @@
     </row>
     <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B232" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C232" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G232">
         <v>3</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>5</v>
@@ -7574,409 +7627,410 @@
     </row>
     <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C233" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
+      <c r="A234">
+        <v>225</v>
+      </c>
+      <c r="B234" t="s">
+        <v>351</v>
+      </c>
+      <c r="C234" t="s">
+        <v>352</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>5</v>
+      </c>
     </row>
     <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B235" t="s">
-        <v>172</v>
+        <v>353</v>
       </c>
       <c r="C235" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="D235">
         <v>3</v>
       </c>
       <c r="E235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B236" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C236" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
         <v>2</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>230</v>
-      </c>
-      <c r="B237" t="s">
-        <v>355</v>
-      </c>
-      <c r="C237" t="s">
-        <v>356</v>
-      </c>
-      <c r="D237">
-        <v>3</v>
-      </c>
-      <c r="E237">
-        <v>2</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>3</v>
-      </c>
-      <c r="H237">
-        <v>3</v>
-      </c>
-      <c r="I237">
-        <v>6</v>
-      </c>
+      <c r="A237" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="4"/>
     </row>
     <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B238" t="s">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="C238" t="s">
-        <v>333</v>
+        <v>173</v>
       </c>
       <c r="D238">
         <v>3</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B239" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="C239" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B240" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C240" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="D240">
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H240">
         <v>3</v>
       </c>
       <c r="I240">
-        <v>6</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>231</v>
+      </c>
+      <c r="B241" t="s">
+        <v>332</v>
+      </c>
+      <c r="C241" t="s">
+        <v>333</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="C242" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B243" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="C243" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="D243">
         <v>3</v>
       </c>
       <c r="E243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G243">
         <v>2</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>236</v>
-      </c>
-      <c r="B244" t="s">
-        <v>334</v>
-      </c>
-      <c r="C244" t="s">
-        <v>46</v>
-      </c>
-      <c r="D244">
-        <v>3</v>
-      </c>
-      <c r="E244">
-        <v>3</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244">
-        <v>3</v>
-      </c>
-      <c r="H244">
-        <v>1</v>
-      </c>
-      <c r="I244">
-        <v>6</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="C245" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="D245">
         <v>3</v>
       </c>
       <c r="E245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I245">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B246" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="C246" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B247" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C247" t="s">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G247">
         <v>3</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B248" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -7985,56 +8039,85 @@
         <v>3</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I248">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B249" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C249" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F249">
         <v>1</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I249">
-        <v>6</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>239</v>
+      </c>
+      <c r="B250" t="s">
+        <v>325</v>
+      </c>
+      <c r="C250" t="s">
+        <v>326</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B251" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C251" t="s">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -8043,79 +8126,51 @@
         <v>3</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B252" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C252" t="s">
-        <v>359</v>
+        <v>220</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>244</v>
-      </c>
-      <c r="B253" t="s">
-        <v>360</v>
-      </c>
-      <c r="C253" t="s">
-        <v>361</v>
-      </c>
-      <c r="D253">
-        <v>3</v>
-      </c>
-      <c r="E253">
-        <v>2</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>3</v>
-      </c>
-      <c r="H253">
-        <v>3</v>
-      </c>
-      <c r="I253">
-        <v>6</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C254" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -8133,18 +8188,18 @@
         <v>3</v>
       </c>
       <c r="I254">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B255" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C255" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D255">
         <v>3</v>
@@ -8162,280 +8217,369 @@
         <v>3</v>
       </c>
       <c r="I255">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B256" t="s">
-        <v>215</v>
+        <v>360</v>
       </c>
       <c r="C256" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="D256">
         <v>3</v>
       </c>
       <c r="E256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I256">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B257" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
       <c r="C257" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F257">
         <v>1</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H257">
         <v>3</v>
       </c>
       <c r="I257">
-        <v>6</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>246</v>
+      </c>
+      <c r="B258" t="s">
+        <v>364</v>
+      </c>
+      <c r="C258" t="s">
+        <v>365</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
+      </c>
+      <c r="I258">
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B259" t="s">
-        <v>366</v>
+        <v>215</v>
       </c>
       <c r="C259" t="s">
-        <v>367</v>
+        <v>216</v>
       </c>
       <c r="D259">
         <v>3</v>
       </c>
       <c r="E259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B260" t="s">
-        <v>368</v>
+        <v>239</v>
       </c>
       <c r="C260" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I260">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <v>251</v>
-      </c>
-      <c r="B261" t="s">
-        <v>223</v>
-      </c>
-      <c r="C261" t="s">
-        <v>224</v>
-      </c>
-      <c r="D261">
-        <v>2</v>
-      </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="F261">
-        <v>2</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>2</v>
-      </c>
-      <c r="I261">
-        <v>6</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B262" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C262" t="s">
-        <v>121</v>
+        <v>367</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G262">
         <v>3</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I262">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B263" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C263" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263">
         <v>3</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B264" t="s">
-        <v>372</v>
+        <v>223</v>
       </c>
       <c r="C264" t="s">
-        <v>373</v>
+        <v>224</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265">
+        <v>252</v>
+      </c>
+      <c r="B265" t="s">
+        <v>350</v>
+      </c>
+      <c r="C265" t="s">
+        <v>121</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265">
+        <v>2</v>
+      </c>
+      <c r="I265">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>253</v>
+      </c>
+      <c r="B266" t="s">
+        <v>370</v>
+      </c>
+      <c r="C266" t="s">
+        <v>371</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266">
+        <v>3</v>
+      </c>
+      <c r="I266">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>254</v>
+      </c>
+      <c r="B267" t="s">
+        <v>372</v>
+      </c>
+      <c r="C267" t="s">
+        <v>373</v>
+      </c>
+      <c r="D267">
+        <v>3</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268">
         <v>255</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B268" t="s">
         <v>374</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C268" t="s">
         <v>375</v>
       </c>
-      <c r="D265">
-        <v>3</v>
-      </c>
-      <c r="E265">
-        <v>3</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265">
-        <v>3</v>
-      </c>
-      <c r="H265">
-        <v>1</v>
-      </c>
-      <c r="I265">
-        <v>6</v>
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="E268">
+        <v>3</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>3</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A237:I237"/>
+    <mergeCell ref="A74:I74"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A94:I94"/>
-    <mergeCell ref="A135:I135"/>
-    <mergeCell ref="A166:I166"/>
-    <mergeCell ref="A202:I202"/>
-    <mergeCell ref="A234:I234"/>
-    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="A169:I169"/>
+    <mergeCell ref="A205:I205"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ملفات الاكسل لمشروع التخرج/subject.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1107F-6CC9-47D4-8E0D-C2710C379B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05AC2CD-9A04-4991-A897-780FDCDEE460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="0" windowWidth="9630" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="I265" sqref="I265"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ملفات الاكسل لمشروع التخرج/subject.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/subject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05AC2CD-9A04-4991-A897-780FDCDEE460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5485CC-F434-4FC9-B1E3-1227A58CFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="0" windowWidth="9630" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ملفات الاكسل لمشروع التخرج/subject.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5485CC-F434-4FC9-B1E3-1227A58CFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02374E32-950B-4867-A4BF-E5A037C944F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,6 +1250,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1263,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1280,6 +1286,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -1562,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7816,7 +7823,7 @@
       <c r="A240">
         <v>230</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="6" t="s">
         <v>355</v>
       </c>
       <c r="C240" t="s">
@@ -8136,7 +8143,7 @@
       <c r="A252">
         <v>241</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="6" t="s">
         <v>357</v>
       </c>
       <c r="C252" t="s">
@@ -8195,7 +8202,7 @@
       <c r="A255">
         <v>243</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="6" t="s">
         <v>358</v>
       </c>
       <c r="C255" t="s">
@@ -8224,7 +8231,7 @@
       <c r="A256">
         <v>244</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="6" t="s">
         <v>360</v>
       </c>
       <c r="C256" t="s">
@@ -8253,7 +8260,7 @@
       <c r="A257">
         <v>245</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C257" t="s">
@@ -8282,7 +8289,7 @@
       <c r="A258">
         <v>246</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C258" t="s">
@@ -8370,7 +8377,7 @@
       <c r="A262">
         <v>249</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C262" t="s">
@@ -8399,7 +8406,7 @@
       <c r="A263">
         <v>250</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C263" t="s">
@@ -8486,7 +8493,7 @@
       <c r="A266">
         <v>253</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C266" t="s">
@@ -8515,7 +8522,7 @@
       <c r="A267">
         <v>254</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="6" t="s">
         <v>372</v>
       </c>
       <c r="C267" t="s">
@@ -8544,7 +8551,7 @@
       <c r="A268">
         <v>255</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="6" t="s">
         <v>374</v>
       </c>
       <c r="C268" t="s">
